--- a/control-1.xlsx
+++ b/control-1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="102">
   <si>
     <t>opcode</t>
   </si>
@@ -231,16 +231,13 @@
     <t>1023fff6</t>
   </si>
   <si>
-    <t>0010</t>
-  </si>
-  <si>
     <t>加</t>
   </si>
   <si>
     <t>1023fff7</t>
   </si>
   <si>
-    <t>0110</t>
+    <t>110</t>
   </si>
   <si>
     <t>减</t>
@@ -252,31 +249,22 @@
     <t>20010000</t>
   </si>
   <si>
-    <t>0000</t>
-  </si>
-  <si>
     <t>与</t>
   </si>
   <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>或</t>
   </si>
   <si>
     <t>20010001</t>
   </si>
   <si>
-    <t>0111</t>
+    <t>111</t>
   </si>
   <si>
     <t>小于置位</t>
   </si>
   <si>
     <t>20420001</t>
-  </si>
-  <si>
-    <t>0100</t>
   </si>
   <si>
     <t>20420004</t>
@@ -341,12 +329,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,9 +343,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,18 +426,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,14 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,60 +463,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -498,13 +486,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -515,13 +496,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,7 +640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,37 +652,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,115 +676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +687,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -748,6 +753,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -765,194 +781,159 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1322,8 +1303,8 @@
   <sheetPr/>
   <dimension ref="A1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2147,16 +2128,16 @@
         <v>31</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K24">
         <v>2</v>
       </c>
       <c r="L24" t="s">
+        <v>71</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2188,22 +2169,22 @@
         <v>31</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K25">
         <v>6</v>
       </c>
       <c r="L25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s">
         <v>75</v>
-      </c>
-      <c r="P25" t="s">
-        <v>76</v>
       </c>
       <c r="Q25" t="s">
         <v>41</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2217,10 +2198,10 @@
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
@@ -2235,16 +2216,16 @@
         <v>15</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2258,10 +2239,10 @@
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
@@ -2276,16 +2257,16 @@
         <v>15</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K27">
         <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2299,10 +2280,10 @@
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>15</v>
@@ -2317,16 +2298,16 @@
         <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2340,10 +2321,10 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>15</v>
@@ -2358,16 +2339,16 @@
         <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2381,10 +2362,10 @@
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>16</v>
@@ -2399,16 +2380,16 @@
         <v>15</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K30">
         <v>7</v>
       </c>
       <c r="L30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2422,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>15</v>
@@ -2440,7 +2421,7 @@
         <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>4</v>
@@ -2449,7 +2430,7 @@
         <v>24</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2481,16 +2462,16 @@
         <v>31</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -2522,7 +2503,7 @@
         <v>31</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="K33">
         <v>4</v>
@@ -2531,120 +2512,120 @@
         <v>24</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="18:18">
       <c r="R34" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="18:18">
       <c r="R35" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="18:18">
       <c r="R36" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="16:18">
       <c r="P37" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q37" t="s">
         <v>44</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="18:18">
       <c r="R38" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="18:18">
       <c r="R39" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="18:18">
       <c r="R40" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="18:18">
       <c r="R41" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="18:18">
       <c r="R42" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="18:18">
       <c r="R43" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="18:18">
       <c r="R44" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="18:18">
       <c r="R45" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="18:18">
       <c r="R46" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="18:18">
       <c r="R47" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="18:18">
       <c r="R48" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="18:18">
       <c r="R49" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="18:18">
       <c r="R50" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="16:18">
       <c r="P51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="Q51" t="s">
         <v>47</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="16:18">
       <c r="P52" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="Q52" t="s">
         <v>51</v>
       </c>
       <c r="R52" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="17:18">
@@ -2652,17 +2633,17 @@
         <v>27</v>
       </c>
       <c r="R53" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="18:18">
       <c r="R54" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="18:18">
       <c r="R55" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="17:18">
@@ -2670,17 +2651,17 @@
         <v>30</v>
       </c>
       <c r="R56" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="18:18">
       <c r="R57" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="18:18">
       <c r="R58" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
